--- a/00 Tổng kết/Thời khóa biểu của học sinh.xlsx
+++ b/00 Tổng kết/Thời khóa biểu của học sinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\WEB-Hoc sinh\00 Tổng kết\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DD0FC-F0EB-48D5-A711-AA1F0C23AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFC437-8347-4BE9-98F7-ABB38E3F056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,18 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -305,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,6 +347,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,25 +385,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,31 +608,31 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -669,14 +690,14 @@
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1"/>
@@ -696,12 +717,12 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1"/>
@@ -721,7 +742,7 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,79 +768,79 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+    <row r="6" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-    </row>
-    <row r="7" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="24" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
@@ -842,12 +863,12 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1"/>
@@ -867,7 +888,7 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,87 +914,87 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+    <row r="12" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="24" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="24" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="22">
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
@@ -996,12 +1017,12 @@
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="1"/>
@@ -1021,7 +1042,7 @@
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,85 +1068,91 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+    <row r="18" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
         <v>7</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="24" t="s">
+      <c r="B18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1135,14 +1162,14 @@
         <v>17</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="1"/>
@@ -1158,21 +1185,15 @@
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A22" s="23"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1185,8 +1206,8 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1212,11 +1233,11 @@
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="6">
         <f t="shared" ref="D24" si="0">COUNTA(D3:D23)</f>
         <v>5</v>
